--- a/biology/Médecine/Surprescription/Surprescription.xlsx
+++ b/biology/Médecine/Surprescription/Surprescription.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La surprescription est l'acte par lequel un professionnel de la santé (médecin, radiologue, chirurgien-dentiste, ...) après un diagnostic, prescrit de façon excessive ou non nécessaire des actes de soins (surtraitement) ou des médicaments (surmédication) à un patient.
-« Dans le monde, près de la moitié des médicaments ne sont pas utilisés à bon escient. »[1]
+« Dans le monde, près de la moitié des médicaments ne sont pas utilisés à bon escient. »
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Les avertissements de l'OMS sur la surconsommation de médicaments dans le monde</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les experts de l'organisation mondiale de la santé (OMS) ont émis des avertissements sérieux au sujet de la surconsommation de médicaments, notamment dans les pays développés : "promouvoir l’usage rationnel des médicaments, c’est sauver des vies et faire des économies". 
 Ils rappellent les graves conséquences  de la surconsommation actuelle : événement indésirable médicamenteux (EIM), prolongation des maladies et même, dans certains cas, le décès. 
@@ -545,10 +559,12 @@
           <t>La surprescription, un des facteurs de la surconsommation de médicaments</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La surprescription est un des facteurs, également très variable d'un pays à l'autre : aux Pays Bas, sur 100 qui sortent d'une consultation, 57 personnes n'ont pas de prescription de médicaments, alors que le taux est de seulement 10 pour 100 en France[2].
-En France où la consommation de médicaments est supérieure de 40 % à celle des pays voisins, 5 000 médicaments sont disponibles en pharmacie sous plus de 15 000 formes différentes en 2014. Un groupe de 24 médecins internes et généralistes, réalisant depuis 2011 un travail de sélection, ont dressé pour le magazine Science et Vie une liste de 151 « médicaments essentiels » pour soigner 95 % des maladies chez l'adulte[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La surprescription est un des facteurs, également très variable d'un pays à l'autre : aux Pays Bas, sur 100 qui sortent d'une consultation, 57 personnes n'ont pas de prescription de médicaments, alors que le taux est de seulement 10 pour 100 en France.
+En France où la consommation de médicaments est supérieure de 40 % à celle des pays voisins, 5 000 médicaments sont disponibles en pharmacie sous plus de 15 000 formes différentes en 2014. Un groupe de 24 médecins internes et généralistes, réalisant depuis 2011 un travail de sélection, ont dressé pour le magazine Science et Vie une liste de 151 « médicaments essentiels » pour soigner 95 % des maladies chez l'adulte.
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Une étude montre les différences entre quatre pays d'Europe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>En France, le Programme Antibiotiques de l’Assurance maladie a démontré qu’il était possible de faire évoluer les comportements des patients vers un meilleur usage, et de baisser la consommation de médicaments (-16 % depuis 2002).
 Pour étendre cette démarche de sensibilisation aux médicaments en général et approfondir la compréhension de ce qui se joue plus globalement autour de l’ordonnance et du médicament, la CNAMTS a commandé une étude « Les Européens, les médicaments et le rapport à l’ordonnance » à Ipsos Santé, qui croise les regards de 4 000 patients et de 1 000 médecins dans 4 pays d’Europe : France, Allemagne, Espagne et Pays-Bas.
@@ -614,7 +632,9 @@
           <t>La même étude montre la possibilité de faire évoluer les comportements</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>De même, la pression ressentie par les médecins, en faveur d’une prescription de médicaments est différente selon les pays :
 46 % des médecins français déclarent faire l’objet de pression de la part de leurs patients, contre 36 % en Allemagne ou en Espagne, et seulement 20 % aux Pays-Bas.
@@ -651,7 +671,9 @@
           <t>Les médecins français surestiment la demande (la pression) des patients</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>En France, il existe un décalage entre les attentes réelles du patient et les attentes supposées par le médecin. Par exemple :
 58 % des médecins français ressentent une attente de prescription pour les rhumes, alors qu’une prescription n’est estimée nécessaire que pour 24 % des patients.
@@ -690,10 +712,12 @@
           <t>Contexte médico-légal</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le droit de prescription est généralement réglementé pour les professionnels de la santé en fonction des lois relatives à la santé ou à l'exercice de la médecine dans un pays. En France, le droit de prescription pour un médecin, un dentiste, un vétérinaire, une sage-femme ou un infirmier est régi par le Code de la santé publique. Le code de déontologie médicale, qui fait partie du Code de la santé publique, vise à éviter la surprescription :
-« Dans les limites fixées par la loi et compte tenu des données acquises de la science, le médecin est libre de ses prescriptions qui seront celles qu'il estime les plus appropriées en la circonstance. Il doit, sans négliger son devoir d'assistance morale, limiter ses prescriptions et ses actes à ce qui est nécessaire à la qualité, à la sécurité et à l'efficacité des soins. Il doit tenir compte des avantages, des inconvénients et des conséquences des différentes investigations et thérapeutiques possibles. »[4]
+« Dans les limites fixées par la loi et compte tenu des données acquises de la science, le médecin est libre de ses prescriptions qui seront celles qu'il estime les plus appropriées en la circonstance. Il doit, sans négliger son devoir d'assistance morale, limiter ses prescriptions et ses actes à ce qui est nécessaire à la qualité, à la sécurité et à l'efficacité des soins. Il doit tenir compte des avantages, des inconvénients et des conséquences des différentes investigations et thérapeutiques possibles. »
 Les pharmaciens ont également pour mission de lutter contre la surprescription : en effet, un pharmacien doit contrôler les prescriptions de médicaments qu'on lui présente et en est co-responsable avec le prescripteur : il ne doit pas délivrer de prescriptions qu'il estime incohérentes. Il doit également contrôler et conseiller les délivrances de médicaments disponibles sans ordonnance. 
 </t>
         </is>
